--- a/Multiplier2.xlsx
+++ b/Multiplier2.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
